--- a/natmiOut/OldD7/LR-pairs_lrc2p/Plat-Lrp1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Plat-Lrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Lrp1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.06150541238639</v>
+        <v>9.280752333333334</v>
       </c>
       <c r="H2">
-        <v>9.06150541238639</v>
+        <v>27.842257</v>
       </c>
       <c r="I2">
-        <v>0.1097243912426993</v>
+        <v>0.1100677737582973</v>
       </c>
       <c r="J2">
-        <v>0.1097243912426993</v>
+        <v>0.1100677737582973</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N2">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O2">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P2">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q2">
-        <v>61.81199193720661</v>
+        <v>75.46396891837934</v>
       </c>
       <c r="R2">
-        <v>61.81199193720661</v>
+        <v>679.175720265414</v>
       </c>
       <c r="S2">
-        <v>0.002046141331011511</v>
+        <v>0.002301512276603067</v>
       </c>
       <c r="T2">
-        <v>0.002046141331011511</v>
+        <v>0.002301512276603068</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.06150541238639</v>
+        <v>9.280752333333334</v>
       </c>
       <c r="H3">
-        <v>9.06150541238639</v>
+        <v>27.842257</v>
       </c>
       <c r="I3">
-        <v>0.1097243912426993</v>
+        <v>0.1100677737582973</v>
       </c>
       <c r="J3">
-        <v>0.1097243912426993</v>
+        <v>0.1100677737582973</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N3">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O3">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P3">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q3">
-        <v>2198.998766648525</v>
+        <v>2258.71607980393</v>
       </c>
       <c r="R3">
-        <v>2198.998766648525</v>
+        <v>20328.44471823538</v>
       </c>
       <c r="S3">
-        <v>0.07279270772981697</v>
+        <v>0.06888668673989407</v>
       </c>
       <c r="T3">
-        <v>0.07279270772981697</v>
+        <v>0.06888668673989408</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.06150541238639</v>
+        <v>9.280752333333334</v>
       </c>
       <c r="H4">
-        <v>9.06150541238639</v>
+        <v>27.842257</v>
       </c>
       <c r="I4">
-        <v>0.1097243912426993</v>
+        <v>0.1100677737582973</v>
       </c>
       <c r="J4">
-        <v>0.1097243912426993</v>
+        <v>0.1100677737582973</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N4">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O4">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P4">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q4">
-        <v>800.3251173860398</v>
+        <v>964.6658832449062</v>
       </c>
       <c r="R4">
-        <v>800.3251173860398</v>
+        <v>8681.992949204157</v>
       </c>
       <c r="S4">
-        <v>0.02649288996532895</v>
+        <v>0.02942053545460372</v>
       </c>
       <c r="T4">
-        <v>0.02649288996532895</v>
+        <v>0.02942053545460373</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.06150541238639</v>
+        <v>9.280752333333334</v>
       </c>
       <c r="H5">
-        <v>9.06150541238639</v>
+        <v>27.842257</v>
       </c>
       <c r="I5">
-        <v>0.1097243912426993</v>
+        <v>0.1100677737582973</v>
       </c>
       <c r="J5">
-        <v>0.1097243912426993</v>
+        <v>0.1100677737582973</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.979244526923</v>
+        <v>33.41874933333333</v>
       </c>
       <c r="N5">
-        <v>27.979244526923</v>
+        <v>100.256248</v>
       </c>
       <c r="O5">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="P5">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
       <c r="Q5">
-        <v>253.5340757151951</v>
+        <v>310.1511358524151</v>
       </c>
       <c r="R5">
-        <v>253.5340757151951</v>
+        <v>2791.360222671736</v>
       </c>
       <c r="S5">
-        <v>0.008392652216541825</v>
+        <v>0.009459039287196413</v>
       </c>
       <c r="T5">
-        <v>0.008392652216541825</v>
+        <v>0.009459039287196415</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>66.4560933120699</v>
+        <v>66.457357</v>
       </c>
       <c r="H6">
-        <v>66.4560933120699</v>
+        <v>199.372071</v>
       </c>
       <c r="I6">
-        <v>0.8047067293109461</v>
+        <v>0.7881702982826134</v>
       </c>
       <c r="J6">
-        <v>0.8047067293109461</v>
+        <v>0.7881702982826134</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N6">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O6">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P6">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q6">
-        <v>453.322413554914</v>
+        <v>540.3803207885379</v>
       </c>
       <c r="R6">
-        <v>453.322413554914</v>
+        <v>4863.422887096842</v>
       </c>
       <c r="S6">
-        <v>0.01500617756487918</v>
+        <v>0.01648060604491505</v>
       </c>
       <c r="T6">
-        <v>0.01500617756487918</v>
+        <v>0.01648060604491505</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>66.4560933120699</v>
+        <v>66.457357</v>
       </c>
       <c r="H7">
-        <v>66.4560933120699</v>
+        <v>199.372071</v>
       </c>
       <c r="I7">
-        <v>0.8047067293109461</v>
+        <v>0.7881702982826134</v>
       </c>
       <c r="J7">
-        <v>0.8047067293109461</v>
+        <v>0.7881702982826134</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N7">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O7">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P7">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q7">
-        <v>16127.21734180757</v>
+        <v>16174.15221156499</v>
       </c>
       <c r="R7">
-        <v>16127.21734180757</v>
+        <v>145567.3699040849</v>
       </c>
       <c r="S7">
-        <v>0.5338537866697544</v>
+        <v>0.4932818987936545</v>
       </c>
       <c r="T7">
-        <v>0.5338537866697544</v>
+        <v>0.4932818987936545</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>66.4560933120699</v>
+        <v>66.457357</v>
       </c>
       <c r="H8">
-        <v>66.4560933120699</v>
+        <v>199.372071</v>
       </c>
       <c r="I8">
-        <v>0.8047067293109461</v>
+        <v>0.7881702982826134</v>
       </c>
       <c r="J8">
-        <v>0.8047067293109461</v>
+        <v>0.7881702982826134</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N8">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O8">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P8">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q8">
-        <v>5869.49720388602</v>
+        <v>6907.753023240219</v>
       </c>
       <c r="R8">
-        <v>5869.49720388602</v>
+        <v>62169.77720916197</v>
       </c>
       <c r="S8">
-        <v>0.1942959682213151</v>
+        <v>0.2106737641101895</v>
       </c>
       <c r="T8">
-        <v>0.1942959682213151</v>
+        <v>0.2106737641101895</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>66.4560933120699</v>
+        <v>66.457357</v>
       </c>
       <c r="H9">
-        <v>66.4560933120699</v>
+        <v>199.372071</v>
       </c>
       <c r="I9">
-        <v>0.8047067293109461</v>
+        <v>0.7881702982826134</v>
       </c>
       <c r="J9">
-        <v>0.8047067293109461</v>
+        <v>0.7881702982826134</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>27.979244526923</v>
+        <v>33.41874933333333</v>
       </c>
       <c r="N9">
-        <v>27.979244526923</v>
+        <v>100.256248</v>
       </c>
       <c r="O9">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="P9">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
       <c r="Q9">
-        <v>1859.391285082416</v>
+        <v>2220.921754938845</v>
       </c>
       <c r="R9">
-        <v>1859.391285082416</v>
+        <v>19988.29579444961</v>
       </c>
       <c r="S9">
-        <v>0.06155079685499736</v>
+        <v>0.06773402933385439</v>
       </c>
       <c r="T9">
-        <v>0.06155079685499736</v>
+        <v>0.06773402933385439</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>7.06664083940928</v>
+        <v>0.3000473333333333</v>
       </c>
       <c r="H10">
-        <v>7.06664083940928</v>
+        <v>0.900142</v>
       </c>
       <c r="I10">
-        <v>0.08556887944635459</v>
+        <v>0.003558498364782037</v>
       </c>
       <c r="J10">
-        <v>0.08556887944635459</v>
+        <v>0.003558498364782037</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N10">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O10">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P10">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q10">
-        <v>48.20425820102967</v>
+        <v>2.439755078409333</v>
       </c>
       <c r="R10">
-        <v>48.20425820102967</v>
+        <v>21.957795705684</v>
       </c>
       <c r="S10">
-        <v>0.001595689152617442</v>
+        <v>7.440804327343282E-05</v>
       </c>
       <c r="T10">
-        <v>0.001595689152617442</v>
+        <v>7.440804327343283E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>7.06664083940928</v>
+        <v>0.3000473333333333</v>
       </c>
       <c r="H11">
-        <v>7.06664083940928</v>
+        <v>0.900142</v>
       </c>
       <c r="I11">
-        <v>0.08556887944635459</v>
+        <v>0.003558498364782037</v>
       </c>
       <c r="J11">
-        <v>0.08556887944635459</v>
+        <v>0.003558498364782037</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N11">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O11">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P11">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q11">
-        <v>1714.895459750842</v>
+        <v>73.02443941620356</v>
       </c>
       <c r="R11">
-        <v>1714.895459750842</v>
+        <v>657.2199547458321</v>
       </c>
       <c r="S11">
-        <v>0.05676760072907561</v>
+        <v>0.002227111112989932</v>
       </c>
       <c r="T11">
-        <v>0.05676760072907561</v>
+        <v>0.002227111112989932</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>7.06664083940928</v>
+        <v>0.3000473333333333</v>
       </c>
       <c r="H12">
-        <v>7.06664083940928</v>
+        <v>0.900142</v>
       </c>
       <c r="I12">
-        <v>0.08556887944635459</v>
+        <v>0.003558498364782037</v>
       </c>
       <c r="J12">
-        <v>0.08556887944635459</v>
+        <v>0.003558498364782037</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N12">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O12">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P12">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q12">
-        <v>624.1358253336609</v>
+        <v>31.18771145154778</v>
       </c>
       <c r="R12">
-        <v>624.1358253336609</v>
+        <v>280.68940306393</v>
       </c>
       <c r="S12">
-        <v>0.02066055579761175</v>
+        <v>0.000951167846240982</v>
       </c>
       <c r="T12">
-        <v>0.02066055579761175</v>
+        <v>0.0009511678462409823</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.3000473333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.900142</v>
+      </c>
+      <c r="I13">
+        <v>0.003558498364782037</v>
+      </c>
+      <c r="J13">
+        <v>0.003558498364782037</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>33.41874933333333</v>
+      </c>
+      <c r="N13">
+        <v>100.256248</v>
+      </c>
+      <c r="O13">
+        <v>0.08593831749489127</v>
+      </c>
+      <c r="P13">
+        <v>0.08593831749489128</v>
+      </c>
+      <c r="Q13">
+        <v>10.02720662080178</v>
+      </c>
+      <c r="R13">
+        <v>90.244859587216</v>
+      </c>
+      <c r="S13">
+        <v>0.0003058113622776901</v>
+      </c>
+      <c r="T13">
+        <v>0.0003058113622776902</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>8.280368333333334</v>
+      </c>
+      <c r="H14">
+        <v>24.841105</v>
+      </c>
+      <c r="I14">
+        <v>0.09820342959430721</v>
+      </c>
+      <c r="J14">
+        <v>0.09820342959430721</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>8.131233999999999</v>
+      </c>
+      <c r="N14">
+        <v>24.393702</v>
+      </c>
+      <c r="O14">
+        <v>0.02090995573015822</v>
+      </c>
+      <c r="P14">
+        <v>0.02090995573015823</v>
+      </c>
+      <c r="Q14">
+        <v>67.32961252452333</v>
+      </c>
+      <c r="R14">
+        <v>605.9665127207099</v>
+      </c>
+      <c r="S14">
+        <v>0.002053429365366674</v>
+      </c>
+      <c r="T14">
+        <v>0.002053429365366674</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>8.280368333333334</v>
+      </c>
+      <c r="H15">
+        <v>24.841105</v>
+      </c>
+      <c r="I15">
+        <v>0.09820342959430721</v>
+      </c>
+      <c r="J15">
+        <v>0.09820342959430721</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>243.3763986666667</v>
+      </c>
+      <c r="N15">
+        <v>730.1291960000001</v>
+      </c>
+      <c r="O15">
+        <v>0.625857000534647</v>
+      </c>
+      <c r="P15">
+        <v>0.6258570005346471</v>
+      </c>
+      <c r="Q15">
+        <v>2015.246224600176</v>
+      </c>
+      <c r="R15">
+        <v>18137.21602140158</v>
+      </c>
+      <c r="S15">
+        <v>0.0614613038881085</v>
+      </c>
+      <c r="T15">
+        <v>0.06146130388810851</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>7.06664083940928</v>
-      </c>
-      <c r="H13">
-        <v>7.06664083940928</v>
-      </c>
-      <c r="I13">
-        <v>0.08556887944635459</v>
-      </c>
-      <c r="J13">
-        <v>0.08556887944635459</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>27.979244526923</v>
-      </c>
-      <c r="N13">
-        <v>27.979244526923</v>
-      </c>
-      <c r="O13">
-        <v>0.07648848283858896</v>
-      </c>
-      <c r="P13">
-        <v>0.07648848283858896</v>
-      </c>
-      <c r="Q13">
-        <v>197.7192720297727</v>
-      </c>
-      <c r="R13">
-        <v>197.7192720297727</v>
-      </c>
-      <c r="S13">
-        <v>0.006545033767049781</v>
-      </c>
-      <c r="T13">
-        <v>0.006545033767049781</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>8.280368333333334</v>
+      </c>
+      <c r="H16">
+        <v>24.841105</v>
+      </c>
+      <c r="I16">
+        <v>0.09820342959430721</v>
+      </c>
+      <c r="J16">
+        <v>0.09820342959430721</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>103.9426383333333</v>
+      </c>
+      <c r="N16">
+        <v>311.827915</v>
+      </c>
+      <c r="O16">
+        <v>0.2672947262403034</v>
+      </c>
+      <c r="P16">
+        <v>0.2672947262403035</v>
+      </c>
+      <c r="Q16">
+        <v>860.6833309384529</v>
+      </c>
+      <c r="R16">
+        <v>7746.149978446075</v>
+      </c>
+      <c r="S16">
+        <v>0.02624925882926926</v>
+      </c>
+      <c r="T16">
+        <v>0.02624925882926926</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>8.280368333333334</v>
+      </c>
+      <c r="H17">
+        <v>24.841105</v>
+      </c>
+      <c r="I17">
+        <v>0.09820342959430721</v>
+      </c>
+      <c r="J17">
+        <v>0.09820342959430721</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>33.41874933333333</v>
+      </c>
+      <c r="N17">
+        <v>100.256248</v>
+      </c>
+      <c r="O17">
+        <v>0.08593831749489127</v>
+      </c>
+      <c r="P17">
+        <v>0.08593831749489128</v>
+      </c>
+      <c r="Q17">
+        <v>276.7195537193377</v>
+      </c>
+      <c r="R17">
+        <v>2490.47598347404</v>
+      </c>
+      <c r="S17">
+        <v>0.008439437511562774</v>
+      </c>
+      <c r="T17">
+        <v>0.008439437511562776</v>
       </c>
     </row>
   </sheetData>
